--- a/doc/ue_delegate.xlsx
+++ b/doc/ue_delegate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBFC537-883A-49BB-B5D4-9649BD4DB85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE7AD89-65DD-421B-8F16-BA814EB8DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,35 +25,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部在压入到数组里面，从前到后，压入到最后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播的时候，顺序相反，从后向前，依次调用回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个很重要，涉及到很多系统的事件注册和我们自己注册后，回调的时机问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如preloadmap事件，我们的回调里面可能会设置参数，系统的movieplayer回调里面就可以直接播放了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FCoreUObjectDelegates::PreLoadMap.AddRaw( this, &amp;FDefaultGameMoviePlayer::OnPreLoadMap );</t>
-  </si>
-  <si>
-    <t>广播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部在压入到数组里面，从前到后，压入到最后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广播的时候，顺序相反，从后向前，依次调用回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvocationList.Add(MoveTemp(NewDelegateBaseRef));</t>
+  </si>
+  <si>
+    <t>直接插入到Array最后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FCoreUObjectDelegates::PreLoadMap.Broadcast(URL.Map);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (int32 InvocationListIndex = LocalInvocationList.Num() - 1; InvocationListIndex &gt;= 0; --InvocationListIndex)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>// this down-cast is OK! allows for managing invocation list in the base class without requiring virtual functions</t>
+  </si>
+  <si>
+    <t>const FDelegate&amp; DelegateBase = (const FDelegate&amp;)LocalInvocationList[InvocationListIndex];</t>
+  </si>
+  <si>
+    <t>IDelegateInstance* DelegateInstanceInterface = Super::GetDelegateInstanceProtectedHelper(DelegateBase);</t>
+  </si>
+  <si>
+    <t>if (DelegateInstanceInterface == nullptr || !((DelegateInstanceInterfaceType*)DelegateInstanceInterface)-&gt;ExecuteIfSafe(Params...))</t>
+  </si>
+  <si>
+    <t>NeedsCompaction = true;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>const InvocationListType&amp; LocalInvocationList = Super::GetInvocationList();</t>
+  </si>
+  <si>
+    <t>从后向前遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +121,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:C22"/>
+  <dimension ref="B6:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -390,34 +448,118 @@
     <col min="2" max="2" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_delegate.xlsx
+++ b/doc/ue_delegate.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE7AD89-65DD-421B-8F16-BA814EB8DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8DF32-EED5-4FFA-B906-2969127A7810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基础" sheetId="6" r:id="rId2"/>
+    <sheet name="DELEGATE" sheetId="2" r:id="rId3"/>
+    <sheet name="DYNAMIC_DELEGATE" sheetId="3" r:id="rId4"/>
+    <sheet name="MULTICAST_DELEGATE" sheetId="4" r:id="rId5"/>
+    <sheet name="DYNAMIC_MULTICAST_DELEGATE" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +99,259 @@
   </si>
   <si>
     <t>从后向前遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef TDelegate&lt;ReturnType(__VA_ARGS__)&gt; DelegateName;</t>
+  </si>
+  <si>
+    <t>最简单的delegate宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏定义就是声明了一个Tdelegate类型的模板类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class IDelegateInstance</t>
+  </si>
+  <si>
+    <t>纯虚类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual UObject* GetUObject( ) const = 0;</t>
+  </si>
+  <si>
+    <t>virtual const void* GetObjectForTimerManager() const = 0;</t>
+  </si>
+  <si>
+    <t>virtual uint64 GetBoundProgramCounterForTimerManager() const = 0;</t>
+  </si>
+  <si>
+    <t>virtual bool HasSameObject( const void* InUserObject ) const = 0;</t>
+  </si>
+  <si>
+    <t>virtual bool IsCompactable( ) const</t>
+  </si>
+  <si>
+    <t>virtual bool IsSafeToExecute( ) const = 0;</t>
+  </si>
+  <si>
+    <t>virtual FDelegateHandle GetHandle() const = 0;</t>
+  </si>
+  <si>
+    <t>class FDelegateHandle</t>
+  </si>
+  <si>
+    <t>一个int64的ID句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint64 ID;</t>
+  </si>
+  <si>
+    <t>变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续这个类被模板实现额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBaseDelegateInstance</t>
+  </si>
+  <si>
+    <t>首先的模板基类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template &lt;typename RetType, typename... ArgTypes, typename UserPolicy&gt;</t>
+  </si>
+  <si>
+    <t>struct IBaseDelegateInstance&lt;RetType(ArgTypes...), UserPolicy&gt; : public UserPolicy::FDelegateInstanceExtras</t>
+  </si>
+  <si>
+    <t>在这个模板基础上，还会被继续继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void CreateCopy(FDelegateBase&amp; Base) = 0;</t>
+  </si>
+  <si>
+    <t>virtual RetType Execute(ArgTypes...) const = 0;</t>
+  </si>
+  <si>
+    <t>virtual bool ExecuteIfSafe(ArgTypes...) const = 0;</t>
+  </si>
+  <si>
+    <t>纯虚函数，需要继续派生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCommonDelegateInstanceState</t>
+  </si>
+  <si>
+    <t>template &lt;typename InRetValType, typename... ParamTypes, typename UserPolicy, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TCommonDelegateInstanceState&lt;InRetValType(ParamTypes...), UserPolicy, VarTypes...&gt; : IBaseDelegateInstance&lt;InRetValType(ParamTypes...), UserPolicy&gt;</t>
+  </si>
+  <si>
+    <t>FDelegateHandle Handle;</t>
+  </si>
+  <si>
+    <t>FDelegateHandle GetHandle() const final</t>
+  </si>
+  <si>
+    <t>函数-获取句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个类还是虚基类，仅仅增加了句柄的获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终的实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBaseUFunctionDelegateInstance</t>
+  </si>
+  <si>
+    <t>template &lt;class UserClass, typename WrappedRetValType, typename... ParamTypes, typename UserPolicy, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TBaseUFunctionDelegateInstance&lt;UserClass, WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt; : public TCommonDelegateInstanceState&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt;</t>
+  </si>
+  <si>
+    <t>TBaseSPMethodDelegateInstance</t>
+  </si>
+  <si>
+    <t>template &lt;bool bConst, class UserClass, ESPMode SPMode, typename WrappedRetValType, typename... ParamTypes, typename UserPolicy, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TBaseSPMethodDelegateInstance&lt;bConst, UserClass, SPMode, WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt; : public TCommonDelegateInstanceState&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt;</t>
+  </si>
+  <si>
+    <t>TBaseRawMethodDelegateInstance</t>
+  </si>
+  <si>
+    <t>template &lt;bool bConst, class UserClass, typename WrappedRetValType, typename... ParamTypes, typename UserPolicy, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TBaseRawMethodDelegateInstance&lt;bConst, UserClass, WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt; : public TCommonDelegateInstanceState&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt;</t>
+  </si>
+  <si>
+    <t>TBaseUObjectMethodDelegateInstance</t>
+  </si>
+  <si>
+    <t>class TBaseUObjectMethodDelegateInstance&lt;bConst, UserClass, WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt; : public TCommonDelegateInstanceState&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt;</t>
+  </si>
+  <si>
+    <t>TBaseStaticDelegateInstance</t>
+  </si>
+  <si>
+    <t>template &lt;typename WrappedRetValType, typename... ParamTypes, typename UserPolicy, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TBaseStaticDelegateInstance&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt; : public TCommonDelegateInstanceState&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt;</t>
+  </si>
+  <si>
+    <t>TBaseFunctorDelegateInstance</t>
+  </si>
+  <si>
+    <t>template &lt;typename WrappedRetValType, typename... ParamTypes, typename UserPolicy, typename FunctorType, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TBaseFunctorDelegateInstance&lt;WrappedRetValType(ParamTypes...), UserPolicy, FunctorType, VarTypes...&gt; : public TCommonDelegateInstanceState&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt;</t>
+  </si>
+  <si>
+    <t>TWeakBaseFunctorDelegateInstance</t>
+  </si>
+  <si>
+    <t>template &lt;typename UserClass, typename WrappedRetValType, typename... ParamTypes, typename UserPolicy, typename FunctorType, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TWeakBaseFunctorDelegateInstance&lt;UserClass, WrappedRetValType(ParamTypes...), UserPolicy, FunctorType, VarTypes...&gt; : public TCommonDelegateInstanceState&lt;WrappedRetValType(ParamTypes...), UserPolicy, VarTypes...&gt;</t>
+  </si>
+  <si>
+    <t>对应了不同的绑定实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定的是Uobject的Ufunction实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现就是直接调用object的ufunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserObjectPtr-&gt;ProcessEvent(CachedFunction, &amp;PayloadAndParams);</t>
+  </si>
+  <si>
+    <t>绑定shared pointer的成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现就是简单的调用SharePtr的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return this-&gt;Payload.ApplyAfter(MethodPtr, MutableUserObject, Params...);</t>
+  </si>
+  <si>
+    <t>这里包装了一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MutableUserClass* MutableUserObject = const_cast&lt;MutableUserClass*&gt;(SharedUserObject.Get());</t>
+  </si>
+  <si>
+    <t>绑定类成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现就是简单的调用类对象的成员函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定Uobject的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定静态函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return this-&gt;Payload.ApplyAfter(StaticFuncPtr, Params...);</t>
+  </si>
+  <si>
+    <t>绑定c++函数，类似lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return this-&gt;Payload.ApplyAfter(Functor, Params...);</t>
+  </si>
+  <si>
+    <t>弱指针的c++函数绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define FUNC_DECLARE_DELEGATE( DelegateName, ReturnType, ... ) \</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后面的delegate其实内部都是调用的DelegateInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -566,4 +824,534 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A700168-2067-44E0-BF5E-EB9F94890A0F}">
+  <dimension ref="B2:E108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+      <c r="E77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+      <c r="E85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+      <c r="E86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D93" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF358F7-1EDB-459E-A87B-37DB7E1F1ADC}">
+  <dimension ref="B4:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EF8C36-6A08-41B7-82B9-08188A7CDADB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60C32C4-FA42-4C87-B5D2-E6F36AEA04F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED11148A-51EC-4D66-B885-B91D9970A812}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_delegate.xlsx
+++ b/doc/ue_delegate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8DF32-EED5-4FFA-B906-2969127A7810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
   <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,14 +351,111 @@
   </si>
   <si>
     <t>!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Declare user's dynamic delegate, with wrapper proxy method for executing the delegate */</t>
+  </si>
+  <si>
+    <t>#define FUNC_DECLARE_DYNAMIC_DELEGATE( TWeakPtr, DynamicDelegateClassName, ExecFunction, FuncParamList, FuncParamPassThru, ... ) \</t>
+  </si>
+  <si>
+    <t>class DynamicDelegateClassName : public TBaseDynamicDelegate&lt;TWeakPtr, __VA_ARGS__&gt; \</t>
+  </si>
+  <si>
+    <t>{ \</t>
+  </si>
+  <si>
+    <t>public: \</t>
+  </si>
+  <si>
+    <t>/** Default constructor */ \</t>
+  </si>
+  <si>
+    <t>DynamicDelegateClassName() \</t>
+  </si>
+  <si>
+    <t>} \</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>/** Construction from an FScriptDelegate must be explicit.  This is really only used by UObject system internals. */ \</t>
+  </si>
+  <si>
+    <t>explicit DynamicDelegateClassName( const TScriptDelegate&lt;&gt;&amp; InScriptDelegate ) \</t>
+  </si>
+  <si>
+    <t>: TBaseDynamicDelegate&lt;TWeakPtr, __VA_ARGS__&gt;( InScriptDelegate ) \</t>
+  </si>
+  <si>
+    <t>/** Execute the delegate.  If the function pointer is not valid, an error will occur. */ \</t>
+  </si>
+  <si>
+    <t>inline void Execute( FuncParamList ) const \</t>
+  </si>
+  <si>
+    <t>/* Verify that the user object is still valid.  We only have a weak reference to it. */ \</t>
+  </si>
+  <si>
+    <t>checkSlow( IsBound() ); \</t>
+  </si>
+  <si>
+    <t>ExecFunction( FuncParamPassThru ); \</t>
+  </si>
+  <si>
+    <t>/** Execute the delegate, but only if the function pointer is still valid */ \</t>
+  </si>
+  <si>
+    <t>inline bool ExecuteIfBound( FuncParamList ) const \</t>
+  </si>
+  <si>
+    <t>if( IsBound() ) \</t>
+  </si>
+  <si>
+    <t>return true; \</t>
+  </si>
+  <si>
+    <t>return false; \</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template &lt;typename TWeakPtr, typename RetValType, typename... ParamTypes&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class TBaseDynamicDelegate : public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TScriptDelegate&lt;TWeakPtr&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个基类，这也解释了为啥Lua里面用TScriptDelegate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +479,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -694,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -827,10 +931,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A700168-2067-44E0-BF5E-EB9F94890A0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -1275,7 +1379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF358F7-1EDB-459E-A87B-37DB7E1F1ADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1312,22 +1416,212 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EF8C36-6A08-41B7-82B9-08188A7CDADB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60C32C4-FA42-4C87-B5D2-E6F36AEA04F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1342,7 +1636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED11148A-51EC-4D66-B885-B91D9970A812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_delegate.xlsx
+++ b/doc/ue_delegate.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10768B95-7A78-4AF1-97E3-018D05A3A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="基础" sheetId="6" r:id="rId2"/>
-    <sheet name="DELEGATE" sheetId="2" r:id="rId3"/>
-    <sheet name="DYNAMIC_DELEGATE" sheetId="3" r:id="rId4"/>
-    <sheet name="MULTICAST_DELEGATE" sheetId="4" r:id="rId5"/>
-    <sheet name="DYNAMIC_MULTICAST_DELEGATE" sheetId="5" r:id="rId6"/>
+    <sheet name="TScriptDelegate" sheetId="7" r:id="rId3"/>
+    <sheet name="DELEGATE" sheetId="2" r:id="rId4"/>
+    <sheet name="DYNAMIC_DELEGATE" sheetId="3" r:id="rId5"/>
+    <sheet name="MULTICAST_DELEGATE" sheetId="4" r:id="rId6"/>
+    <sheet name="DYNAMIC_MULTICAST_DELEGATE" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
   <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,9 +357,6 @@
   </si>
   <si>
     <t>/** Declare user's dynamic delegate, with wrapper proxy method for executing the delegate */</t>
-  </si>
-  <si>
-    <t>#define FUNC_DECLARE_DYNAMIC_DELEGATE( TWeakPtr, DynamicDelegateClassName, ExecFunction, FuncParamList, FuncParamPassThru, ... ) \</t>
   </si>
   <si>
     <t>class DynamicDelegateClassName : public TBaseDynamicDelegate&lt;TWeakPtr, __VA_ARGS__&gt; \</t>
@@ -450,11 +449,258 @@
     <t>注意这个基类，这也解释了为啥Lua里面用TScriptDelegate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>TScriptDelegate</t>
+  </si>
+  <si>
+    <t>绑定Uobject的函数，其内部维护一个Uobject的弱指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class TScriptDelegate</t>
+  </si>
+  <si>
+    <t>弱指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** The object bound to this delegate, or nullptr if no object is bound */</t>
+  </si>
+  <si>
+    <t>TWeakPtr Object;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;typename </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TWeakPtr = FWeakObjectPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Name of the function to call on the bound object */</t>
+  </si>
+  <si>
+    <t>FName FunctionName;</t>
+  </si>
+  <si>
+    <t>void BindUFunction( UObject* InObject, const FName&amp; InFunctionName )</t>
+  </si>
+  <si>
+    <t>Object = InObject;</t>
+  </si>
+  <si>
+    <t>FunctionName = InFunctionName;</t>
+  </si>
+  <si>
+    <t>void Unbind()</t>
+  </si>
+  <si>
+    <t>Object = nullptr;</t>
+  </si>
+  <si>
+    <t>FunctionName = NAME_None;</t>
+  </si>
+  <si>
+    <t>template &lt;class UObjectTemplate&gt;</t>
+  </si>
+  <si>
+    <t>void ProcessDelegate( void* Parameters ) const</t>
+  </si>
+  <si>
+    <t>checkf( Object.IsValid() != false, TEXT( "ProcessDelegate() called with no object bound to delegate!" ) );</t>
+  </si>
+  <si>
+    <t>checkf( FunctionName != NAME_None, TEXT( "ProcessDelegate() called with no function name set!" ) );</t>
+  </si>
+  <si>
+    <t>// Object was pending kill, so we cannot execute the delegate.  Note that it's important to assert</t>
+  </si>
+  <si>
+    <t>// here and not simply continue execution, as memory may be left uninitialized if the delegate is</t>
+  </si>
+  <si>
+    <t>// not able to execute, resulting in much harder-to-detect code errors.  Users should always make</t>
+  </si>
+  <si>
+    <t>// sure IsBound() returns true before calling ProcessDelegate()!</t>
+  </si>
+  <si>
+    <t>UObjectTemplate* ObjectPtr = static_cast&lt; UObjectTemplate* &gt;( Object.Get() );</t>
+  </si>
+  <si>
+    <t>// Down-cast</t>
+  </si>
+  <si>
+    <t>checkSlow( IsValid(ObjectPtr) );</t>
+  </si>
+  <si>
+    <t>// Object *must* implement the specified function</t>
+  </si>
+  <si>
+    <t>UFunction* Function = ObjectPtr-&gt;FindFunctionChecked( FunctionName );</t>
+  </si>
+  <si>
+    <t>// Execute the delegate!</t>
+  </si>
+  <si>
+    <t>ObjectPtr-&gt;ProcessEvent(Function, Parameters);</t>
+  </si>
+  <si>
+    <t>LUA脚本层绑定的都是TScriptDelegate，也就是和Uobject结合在一起的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#define DECLARE_DYNAMIC_DELEGATE( DelegateName ) BODY_MACRO_COMBINE(CURRENT_FILE_ID,_,__LINE__,_DELEGATE) FUNC_DECLARE_DYNAMIC_DELEGATE( FWeakObjectPtr, DelegateName, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DelegateName##_DelegateWrapper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, , FUNC_CONCAT( *this ), void )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个Delegatename##_DelegateWrapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被自动生成了：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static inline void FUMyGameInstanceDelegate_DelegateWrapper(const FScriptDelegate&amp; UMyGameInstanceDelegate) \</t>
+  </si>
+  <si>
+    <t>UMyGameInstanceDelegate.ProcessDelegate&lt;UObject&gt;(NULL); \</t>
+  </si>
+  <si>
+    <t>MyGameInstance.generated.h</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#define FUNC_DECLARE_DYNAMIC_DELEGATE( TWeakPtr, DynamicDelegateClassName, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ExecFunction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, FuncParamList,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FuncParamPassThru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ... ) \</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个是上面自动生成的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个就是this指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define FUNC_CONCAT( ... ) __VA_ARGS__</t>
+  </si>
+  <si>
+    <t>FUNC_CONCAT( *this, InParam1, InParam2 )</t>
+  </si>
+  <si>
+    <t>FUNC_CONCAT( *this, InParam1 )</t>
+  </si>
+  <si>
+    <t>不同参数个数不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是调用基类的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是需要和Uobject绑定在一起的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -798,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -931,7 +1177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1379,11 +1625,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A485488B-6F79-49F0-BB23-2184DEE297D5}">
+  <dimension ref="B4:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,211 +1853,6 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1621,11 +1863,289 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:V51"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>161</v>
+      </c>
+      <c r="V21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>100</v>
+      </c>
+      <c r="S24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G46" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1635,8 +2155,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_delegate.xlsx
+++ b/doc/ue_delegate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10768B95-7A78-4AF1-97E3-018D05A3A32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +19,7 @@
     <sheet name="DYNAMIC_DELEGATE" sheetId="3" r:id="rId5"/>
     <sheet name="MULTICAST_DELEGATE" sheetId="4" r:id="rId6"/>
     <sheet name="DYNAMIC_MULTICAST_DELEGATE" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
   <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,11 +696,51 @@
     <t>是需要和Uobject绑定在一起的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>template &lt;bool bConst, class UserClass, typename FuncType, typename UserPolicy, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>class TBaseUObjectMethodDelegateInstance;</t>
+  </si>
+  <si>
+    <t>template &lt;typename UserClass, typename... VarTypes&gt;</t>
+  </si>
+  <si>
+    <t>UE_NODISCARD inline static TDelegate&lt;RetValType(ParamTypes...), UserPolicy&gt; CreateUObject(UserClass* InUserObject, typename TMemFunPtrType&lt;false, UserClass, RetValType (ParamTypes..., VarTypes...)&gt;::Type InFunc, VarTypes... Vars)</t>
+  </si>
+  <si>
+    <t>static_assert(!TIsConst&lt;UserClass&gt;::Value, "Attempting to bind a delegate with a const object pointer and non-const member function.");</t>
+  </si>
+  <si>
+    <t>TDelegate&lt;RetValType(ParamTypes...), UserPolicy&gt; Result;</t>
+  </si>
+  <si>
+    <t>TBaseUObjectMethodDelegateInstance&lt;false, UserClass, FuncType, UserPolicy, VarTypes...&gt;::Create(Result, InUserObject, InFunc, Vars...);</t>
+  </si>
+  <si>
+    <t>return Result;</t>
+  </si>
+  <si>
+    <t>如果绑定是的Uobject的函数，其实内部都是weakptr，所以不会出问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!不用担心对象被释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！可以看出，基本内部如果是Uobject的Function，则Uobject就都是weakptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,11 +1084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1177,11 +1217,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1361,60 +1401,66 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
         <v>59</v>
       </c>
@@ -1625,11 +1671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A485488B-6F79-49F0-BB23-2184DEE297D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1826,33 +1872,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B4:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1863,11 +1967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V51"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2141,10 +2245,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2168,4 +2272,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_delegate.xlsx
+++ b/doc/ue_delegate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD0F07-FAF4-456B-8593-BDF156590F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="658" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,8 @@
     <sheet name="DYNAMIC_DELEGATE" sheetId="3" r:id="rId5"/>
     <sheet name="MULTICAST_DELEGATE" sheetId="4" r:id="rId6"/>
     <sheet name="DYNAMIC_MULTICAST_DELEGATE" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="动态代理原理" sheetId="8" r:id="rId8"/>
+    <sheet name="简单代理原理" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
   <si>
     <t>注册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,11 +738,149 @@
     <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>动态代理的原理就是为了方便蓝图能绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且普通的类其实也可以绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DECLARE_DYNAMIC_DELEGATE(FDelegateNameXXXX); </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//动态单播委托</t>
+  </si>
+  <si>
+    <t>这个类先生成了一个宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyProject004_Source_MyProject004_MyGameInstance_h_14_DELEGATE</t>
+  </si>
+  <si>
+    <t>这个宏在UHT生成xxxx.generated.h时生成，例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define MyProject004_Source_MyProject004_MyGameInstance_h_14_DELEGATE \</t>
+  </si>
+  <si>
+    <t>static inline void FDelegateNameXXXX_DelegateWrapper(const FScriptDelegate&amp; DelegateNameXXXX) \</t>
+  </si>
+  <si>
+    <t>DelegateNameXXXX.ProcessDelegate&lt;UObject&gt;(NULL); \</t>
+  </si>
+  <si>
+    <t>本质上就是定义了一个全局函数，后面动态单播类定义会用这个函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成一个类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的参数的宏，等于传输的参数和里面processDelefate的参数不一样而已</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define FUNC_DECLARE_DYNAMIC_DELEGATE( TWeakPtr, DynamicDelegateClassName, ExecFunction, FuncParamList, FuncParamPassThru, ... ) \</t>
+  </si>
+  <si>
+    <t>#define DECLARE_DYNAMIC_DELEGATE( DelegateName ) BODY_MACRO_COMBINE(CURRENT_FILE_ID,_,__LINE__,_DELEGATE) FUNC_DECLARE_DYNAMIC_DELEGATE( FWeakObjectPtr, DelegateName, DelegateName##_DelegateWrapper, , FUNC_CONCAT( *this ), void )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，回调函数名字DelegateName##_DelegateWrapper，就是上面的那个静态函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无参数，且execFunction也是无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button_0-&gt;OnClicked.AddDynamic(this, &amp;UMyUserWidget::OnButtonClick);</t>
+  </si>
+  <si>
+    <t>注意，这个AddDynamic是一个宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define AddDynamic( UserObject, FuncName ) __Internal_AddDynamic( UserObject, FuncName, STATIC_FUNCTION_FNAME( TEXT( #FuncName ) ) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们传入了函数名字，但是注意：STATIC_FUNCTION_FNAME会将前面的东西去掉，仅仅保留函数名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkSlow( !ObjectPtr-&gt;IsPendingKill() );</t>
+  </si>
+  <si>
+    <t>通过名字找到函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE(FLoadingMapDelegate);</t>
+  </si>
+  <si>
+    <t>#define DECLARE_MULTICAST_DELEGATE( DelegateName ) FUNC_DECLARE_MULTICAST_DELEGATE( DelegateName, void )</t>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define FUNC_DECLARE_MULTICAST_DELEGATE( MulticastDelegateName, ReturnType, ... ) \</t>
+  </si>
+  <si>
+    <t>typedef TMulticastDelegate&lt;ReturnType(__VA_ARGS__)&gt; MulticastDelegateName;</t>
+  </si>
+  <si>
+    <t>template &lt;typename InRetValType, typename... ParamTypes, typename UserPolicy&gt;</t>
+  </si>
+  <si>
+    <t>class TDelegate&lt;InRetValType(ParamTypes...), UserPolicy&gt; : public TDelegateBase&lt;UserPolicy&gt;</t>
+  </si>
+  <si>
+    <t>统一的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部就是用一个模板类的不同实例化对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次会生成一个自己的类对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,10 +941,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1084,10 +1225,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1217,10 +1358,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -1671,10 +1812,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -1872,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1967,7 +2108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:V51"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
@@ -2245,7 +2386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2260,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2275,15 +2416,480 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:J89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C72" s="3"/>
+      <c r="D72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C74" s="3"/>
+      <c r="D74" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C75" s="3"/>
+      <c r="D75" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" s="3"/>
+      <c r="E76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>3</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B2CBC0-9FBE-4083-9277-BD906CAD6430}">
+  <dimension ref="B2:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>